--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -44,25 +44,73 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
     <t>42.9000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>Sunday, 25 May, 2025 11:13 AM</t>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 25 May, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +772,170 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>42.899999999999999</v>
-      </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
         <v>17</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
         <v>19</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>26</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>25</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>26</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>134.5</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +949,30 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -110,7 +110,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 11:28 AM</t>
+    <t>Sunday, 25 May, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -110,7 +119,16 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 11:30 AM</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 25 May, 2025 11:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -850,24 +868,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -876,66 +894,132 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
       </c>
-      <c t="s" r="Q11" s="12">
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>28</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>134.5</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>33</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>28</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>29</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>39</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>40</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>41</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1053,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -128,7 +128,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 11:42 AM</t>
+    <t>Sunday, 25 May, 2025 11:43 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -105,9 +117,6 @@
   </si>
   <si>
     <t>50.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -835,7 +844,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -845,14 +854,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -861,7 +870,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -878,11 +887,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -894,31 +903,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -927,20 +936,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -951,7 +960,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -967,13 +976,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -984,42 +993,75 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
-        <v>39</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>33</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>40</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>464</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1063,10 +1105,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -77,15 +77,18 @@
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -137,7 +140,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 11:43 AM</t>
+    <t>Sunday, 25 May, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -861,7 +864,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -870,7 +873,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -887,11 +890,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -903,7 +906,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -920,11 +923,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -936,31 +939,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -969,31 +972,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1002,31 +1005,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1037,7 +1040,7 @@
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c t="s" r="A16" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1045,13 +1048,13 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c t="s" r="G16" s="15">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c t="s" r="K16" s="17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -44,24 +44,51 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -86,9 +113,6 @@
     <t>240.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -140,7 +164,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 11:58 AM</t>
+    <t>Sunday, 25 May, 2025 12:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -814,7 +838,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -824,14 +848,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -847,7 +871,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -857,14 +881,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -873,14 +897,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -890,14 +914,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -906,14 +930,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -923,14 +947,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -939,31 +963,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -972,31 +996,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1005,66 +1029,165 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>41</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
         <v>42</v>
       </c>
-      <c t="s" r="Q14" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>464</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>43</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>45</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>41</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>42</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>46</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>41</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>42</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>49</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>559.73000000000002</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>51</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>52</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>53</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1113,10 +1236,25 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -164,7 +164,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 12:15 PM</t>
+    <t>Sunday, 25 May, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>CIPROQUIN 750MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -101,6 +113,18 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -131,12 +155,30 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>RENAL S-N 12 SACHET</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -152,7 +194,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -164,7 +206,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 12:16 PM</t>
+    <t>Sunday, 25 May, 2025 12:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -954,7 +996,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -987,7 +1029,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1003,7 +1045,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1013,11 +1055,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1029,14 +1071,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1046,14 +1088,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1062,20 +1104,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1086,7 +1128,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1102,13 +1144,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1119,7 +1161,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1135,13 +1177,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1152,42 +1194,174 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>52</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>53</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>559.73000000000002</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>51</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>52</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>53</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>27</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>56</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>27</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>56</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>60</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>27</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>56</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>715.23000000000002</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>65</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>66</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>67</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1251,10 +1425,30 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -125,18 +125,30 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -206,7 +218,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 12:20 PM</t>
+    <t>Sunday, 25 May, 2025 12:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1090,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1088,14 +1100,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1111,7 +1123,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1128,7 +1140,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1137,7 +1149,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1154,11 +1166,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1170,7 +1182,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1187,11 +1199,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1203,14 +1215,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1227,7 +1239,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1243,13 +1255,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1282,18 +1294,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1302,7 +1314,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1315,53 +1327,86 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>715.23000000000002</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>65</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>66</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>27</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>60</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>67</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>1010.67</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>69</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>70</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>71</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1445,10 +1490,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -188,6 +197,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
@@ -218,7 +236,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 12:25 PM</t>
+    <t>Sunday, 25 May, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1090,7 +1108,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1107,7 +1125,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1116,7 +1134,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1133,14 +1151,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1149,14 +1167,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1166,14 +1184,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1255,7 +1273,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1265,14 +1283,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1281,28 +1299,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1314,7 +1332,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1327,18 +1345,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1347,7 +1365,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1360,7 +1378,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1375,38 +1393,104 @@
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>1010.67</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>69</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>27</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>66</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>70</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c t="s" r="Q23" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>27</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>66</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1193.6700000000001</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>75</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>76</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>77</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1495,10 +1579,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -134,6 +134,30 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -155,9 +179,6 @@
     <t>480.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -236,7 +257,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 12:26 PM</t>
+    <t>Sunday, 25 May, 2025 12:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1141,7 +1162,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1151,14 +1172,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1174,7 +1195,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1184,14 +1205,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1207,7 +1228,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1224,7 +1245,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1233,14 +1254,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1250,14 +1271,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1266,7 +1287,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1283,11 +1304,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1299,14 +1320,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1323,7 +1344,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1339,7 +1360,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1356,7 +1377,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1372,13 +1393,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1411,7 +1432,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1422,7 +1443,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1444,53 +1465,119 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1193.6700000000001</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>75</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>76</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>27</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>73</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>77</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>27</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>73</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>80</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1231.51</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1589,10 +1676,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -206,6 +206,18 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>PREXAL 5 MG 30 CAPLETS</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
     <t>RENAL S-N 12 SACHET</t>
   </si>
   <si>
@@ -227,6 +239,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
@@ -257,7 +278,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 12:40 PM</t>
+    <t>Sunday, 25 May, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1410,7 +1431,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1426,7 +1447,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1436,11 +1457,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1452,7 +1473,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1465,7 +1486,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1492,13 +1513,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1509,7 +1530,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1531,53 +1552,119 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1231.51</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>82</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>83</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>27</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>80</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>84</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>86</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>27</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>80</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>87</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1368.79</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>89</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>90</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>91</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1686,10 +1773,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -278,7 +278,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 12:48 PM</t>
+    <t>Sunday, 25 May, 2025 12:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -188,6 +200,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>91.00</t>
+  </si>
+  <si>
+    <t>91.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -206,6 +227,24 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>PREXAL 5 MG 30 CAPLETS</t>
   </si>
   <si>
@@ -221,9 +260,6 @@
     <t>RENAL S-N 12 SACHET</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -239,6 +275,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>TIRATAM XR 500MG 20 TABLETS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -278,7 +326,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 12:54 PM</t>
+    <t>Sunday, 25 May, 2025 12:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1150,7 +1198,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1160,11 +1208,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1176,14 +1224,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1200,7 +1248,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1233,7 +1281,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1249,7 +1297,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,14 +1307,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,7 +1347,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1308,14 +1356,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1325,14 +1373,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1341,7 +1389,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1358,11 +1406,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1374,14 +1422,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1391,14 +1439,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,14 +1455,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1447,7 +1495,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1457,14 +1505,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1473,14 +1521,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1490,11 +1538,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1506,14 +1554,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1523,14 +1571,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1539,31 +1587,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1572,31 +1620,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1605,7 +1653,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1618,53 +1666,251 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1368.79</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>88</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>27</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>73</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>89</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>27</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>90</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>91</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>20</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>93</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>27</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>96</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>97</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>27</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>96</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>100</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>102</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>27</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>96</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>103</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1970.79</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>105</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>106</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>107</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1783,10 +2029,40 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 12:58 PM</t>
+    <t>Sunday, 25 May, 2025 12:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>91.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -326,7 +335,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 12:59 PM</t>
+    <t>Sunday, 25 May, 2025 1:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1462,7 +1471,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1479,7 +1488,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1528,7 +1537,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1545,7 +1554,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1561,7 +1570,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1594,7 +1603,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1604,14 +1613,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1644,7 +1653,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1660,7 +1669,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1703,11 +1712,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1719,7 +1728,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1736,11 +1745,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1759,7 +1768,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1776,7 +1785,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1792,24 +1801,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1818,7 +1827,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1831,7 +1840,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1842,7 +1851,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1864,7 +1873,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1875,42 +1884,75 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>105</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>27</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>99</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>106</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1970.79</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>105</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>106</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>107</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>2105.79</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>108</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>109</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>110</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2059,10 +2101,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -335,7 +335,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 1:01 PM</t>
+    <t>Sunday, 25 May, 2025 1:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1372,7 +1372,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>75.9000</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>RENAL S-N 12 SACHET</t>
   </si>
   <si>
@@ -335,7 +344,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 1:03 PM</t>
+    <t>Sunday, 25 May, 2025 1:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1669,7 +1678,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1686,7 +1695,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1702,7 +1711,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,11 +1754,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1761,7 +1770,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1778,11 +1787,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1801,7 +1810,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1818,7 +1827,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1834,24 +1843,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1860,7 +1869,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1873,7 +1882,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1884,7 +1893,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1906,7 +1915,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1917,42 +1926,75 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>108</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>27</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>102</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>109</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>2105.79</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>108</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>109</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>110</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>2128.5599999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>111</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>112</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>113</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2106,10 +2148,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>13:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>26.7300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -113,6 +125,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -158,6 +179,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>133.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -167,9 +197,6 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -344,7 +371,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 1:05 PM</t>
+    <t>Sunday, 25 May, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1018,7 +1045,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1028,14 +1055,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1044,14 +1071,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1061,14 +1088,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1077,14 +1104,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1094,14 +1121,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1110,14 +1137,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1127,14 +1154,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1167,7 +1194,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1200,7 +1227,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1216,7 +1243,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1226,14 +1253,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1242,14 +1269,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1266,7 +1293,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1299,7 +1326,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1315,7 +1342,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1325,11 +1352,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1341,14 +1368,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1365,7 +1392,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1374,14 +1401,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1391,14 +1418,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1407,14 +1434,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1428,10 +1455,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1440,14 +1467,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1457,14 +1484,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>65</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1480,7 +1507,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1497,7 +1524,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1513,7 +1540,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1530,7 +1557,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1546,7 +1573,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1563,7 +1590,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1579,7 +1606,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1612,7 +1639,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1629,7 +1656,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1645,7 +1672,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1655,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1671,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1688,14 +1715,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1704,14 +1731,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1721,11 +1748,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1737,14 +1764,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1761,7 +1788,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1777,7 +1804,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1787,14 +1814,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1803,14 +1830,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1820,11 +1847,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1836,14 +1863,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1853,14 +1880,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1869,28 +1896,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1902,31 +1929,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1935,66 +1962,165 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>110</v>
       </c>
-      <c t="s" r="Q36" s="12">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>31</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>111</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>112</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>2128.5599999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>31</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
         <v>111</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>112</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>113</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>115</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>117</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>31</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>111</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>118</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>2314.25</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>121</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>122</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2153,10 +2279,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -170,13 +170,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
@@ -206,9 +209,6 @@
     <t>55.4400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -281,6 +281,18 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PREXAL 5 MG 30 CAPLETS</t>
   </si>
   <si>
@@ -344,9 +356,6 @@
     <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -371,7 +380,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 1:07 PM</t>
+    <t>Sunday, 25 May, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1392,7 +1401,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1401,7 +1410,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1418,11 +1427,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1434,14 +1443,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1451,7 +1460,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1467,7 +1476,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1484,14 +1493,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,7 +1533,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1606,7 +1615,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1777,11 +1786,11 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1804,7 +1813,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,11 +1823,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,11 +1889,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1896,7 +1905,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1913,11 +1922,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1929,7 +1938,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1946,11 +1955,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1979,14 +1988,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,20 +2004,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2019,7 +2028,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2041,7 +2050,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2052,7 +2061,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2074,7 +2083,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2085,42 +2094,75 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>120</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>31</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>92</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>121</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2314.25</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>120</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>121</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>122</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2357.0900000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>123</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>124</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>125</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2336,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -182,6 +194,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
   </si>
   <si>
@@ -380,7 +401,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 1:09 PM</t>
+    <t>Sunday, 25 May, 2025 1:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1401,7 +1422,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1410,14 +1431,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1434,7 +1455,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1443,14 +1464,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1464,7 +1485,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1476,7 +1497,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1493,14 +1514,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1509,14 +1530,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1526,14 +1547,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1542,14 +1563,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1559,14 +1580,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1575,7 +1596,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1592,14 +1613,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1608,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,14 +1646,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,14 +1662,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,14 +1679,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1674,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1707,14 +1728,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1724,14 +1745,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1778,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,31 +1794,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1813,7 +1834,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1823,14 +1844,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,24 +1860,24 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1879,7 +1900,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,14 +1910,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,14 +1926,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1922,14 +1943,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,14 +1959,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1955,11 +1976,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1971,7 +1992,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1988,11 +2009,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2004,14 +2025,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2021,14 +2042,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,7 +2058,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2050,15 +2071,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2070,31 +2091,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2103,7 +2124,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2116,53 +2137,119 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2357.0900000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>123</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>124</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>31</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>99</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>125</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>127</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>31</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>99</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>128</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>2404.0900000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>130</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>131</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>132</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2341,10 +2428,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 1:11 PM</t>
+    <t>Sunday, 25 May, 2025 1:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-25_00-00.xlsx
+++ b/DaySale_2025-05-25_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANAFRONIL SR 75MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>37.5000</t>
+  </si>
+  <si>
     <t>BI-KETOGESIC 150 MG 30 TAB.</t>
   </si>
   <si>
@@ -95,6 +104,18 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>CELLCEPT 500 MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>292.0000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -104,9 +125,6 @@
     <t>CIPROQUIN 750MG 10 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>74.00</t>
   </si>
   <si>
@@ -134,6 +152,24 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>CRESTOR 10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>212.00</t>
+  </si>
+  <si>
+    <t>212.0000</t>
+  </si>
+  <si>
+    <t>CRESTOR 20MG 28 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>600.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -257,6 +293,15 @@
     <t>91.0000</t>
   </si>
   <si>
+    <t>MEDMYLEZEN SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -305,13 +350,16 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>351.0000</t>
+  </si>
+  <si>
+    <t>3:1</t>
   </si>
   <si>
     <t>PREXAL 5 MG 30 CAPLETS</t>
@@ -347,9 +395,6 @@
     <t>TARGOMASH 80MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -374,6 +419,15 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>VOMISTOP 10 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
@@ -401,7 +455,7 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>Sunday, 25 May, 2025 1:44 PM</t>
+    <t>Sunday, 25 May, 2025 1:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1108,7 +1162,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1141,7 +1195,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1158,7 +1212,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1174,7 +1228,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1184,14 +1238,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1200,14 +1254,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1217,14 +1271,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1233,14 +1287,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1250,11 +1304,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1266,14 +1320,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1283,14 +1337,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1299,14 +1353,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1316,11 +1370,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1332,14 +1386,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1349,14 +1403,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1365,14 +1419,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1382,11 +1436,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1398,14 +1452,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1415,11 +1469,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1431,14 +1485,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1448,14 +1502,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1464,14 +1518,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1481,11 +1535,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1497,14 +1551,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1514,11 +1568,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1530,14 +1584,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1547,11 +1601,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1563,14 +1617,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1580,14 +1634,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>60</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1603,7 +1657,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1620,7 +1674,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1636,7 +1690,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1653,7 +1707,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1669,7 +1723,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1679,11 +1733,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1702,7 +1756,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1719,7 +1773,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1735,7 +1789,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1752,7 +1806,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1768,7 +1822,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1801,7 +1855,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1834,7 +1888,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1867,24 +1921,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1893,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1910,11 +1964,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1926,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1943,11 +1997,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1959,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1976,11 +2030,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1992,14 +2046,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,11 +2063,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2025,31 +2079,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2058,14 +2112,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2075,14 +2129,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2091,14 +2145,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2108,11 +2162,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2124,28 +2178,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2157,31 +2211,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2190,66 +2244,264 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>2404.0900000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>130</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>32</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>13</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>131</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>133</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>21</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>13</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>134</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>32</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>13</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>137</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>32</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>114</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>140</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>32</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>114</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>143</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>145</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>32</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>114</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>146</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>3900.5900000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>148</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>149</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>150</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2438,10 +2690,40 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
